--- a/data_cleaning/data/filtered/filtered_amazon.xlsx
+++ b/data_cleaning/data/filtered/filtered_amazon.xlsx
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>429.7435897435897</v>
+        <v>429</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>429.7435897435897</v>
+        <v>429</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
